--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第12章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第12章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>角色</t>
   </si>
@@ -46,6 +46,9 @@
     <t>差点没头的尼克</t>
   </si>
   <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
     <t>胖夫人</t>
   </si>
   <si>
@@ -58,10 +61,10 @@
     <t>神秘人</t>
   </si>
   <si>
+    <t>费尔奇</t>
+  </si>
+  <si>
     <t>血人巴罗</t>
-  </si>
-  <si>
-    <t>费尔奇</t>
   </si>
   <si>
     <t>伏地魔</t>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +538,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -546,7 +549,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -557,7 +560,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -568,7 +571,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -579,13 +582,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -601,7 +604,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -612,7 +615,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -640,6 +643,17 @@
         <v>19</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
